--- a/design/Frontend Design Document.xlsx
+++ b/design/Frontend Design Document.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>Frontend Design Document</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Johan</t>
   </si>
   <si>
-    <t>※ Routes</t>
+    <t>※ Navigation</t>
   </si>
   <si>
     <t>TopNav-A</t>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>/admin/resellers</t>
+  </si>
+  <si>
+    <t>PAYMENTS</t>
+  </si>
+  <si>
+    <t>/admin/payments</t>
   </si>
   <si>
     <t>LOG OUT</t>
@@ -118,13 +124,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,36 +163,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,41 +224,47 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,6 +284,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -271,31 +307,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,6 +331,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -322,6 +373,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -334,7 +403,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,13 +457,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,133 +499,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,6 +549,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -552,26 +588,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,28 +623,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,15 +642,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -639,134 +660,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -783,6 +804,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -797,10 +830,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1230,142 +1263,142 @@
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="8">
+      <c r="B6" s="12">
         <v>0</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="14">
         <v>43401</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="8"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="8"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="8"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="8"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="8"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="8"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="8"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="8"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="8"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="8"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="11"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="5"/>
     </row>
   </sheetData>
@@ -1377,10 +1410,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:D30"/>
+  <dimension ref="B2:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1447,13 +1480,13 @@
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="5" t="s">
@@ -1508,14 +1541,23 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="5" t="s">
+    <row r="30" customFormat="1" spans="2:4">
+      <c r="B30" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
